--- a/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T11:26:00+00:00</t>
+    <t>2024-01-24T11:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-review-date.xlsx
+++ b/ig/sd-add-date-start-idPrimary/StructureDefinition-eclaire-review-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T11:35:25+00:00</t>
+    <t>2024-01-24T12:42:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
